--- a/docs/project_schedule/工程管理表.xlsx
+++ b/docs/project_schedule/工程管理表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-O8C5N1I\std\アプリケーション開発実習\Grp.D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Group_B_Project\docs\project_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107A59DD-577A-4C10-8AE4-474E30F038E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0873FA3D-7548-4873-B9BA-BFBDEAC16AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" tabRatio="430" activeTab="1" xr2:uid="{1C9A3642-78A0-4265-A536-804D78D42E01}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="102">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -168,27 +168,6 @@
   </si>
   <si>
     <t>第３回　プレゼンテーション</t>
-  </si>
-  <si>
-    <t>7/11（火）</t>
-    <rPh sb="5" eb="6">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7/20（火）</t>
-    <rPh sb="5" eb="6">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7/03（月）</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>備考</t>
@@ -562,10 +541,6 @@
     <t>&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t>&gt;&gt;&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&gt;&gt;&gt;|</t>
   </si>
   <si>
@@ -647,9 +622,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>終了</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
+    <t>7/03（水）</t>
+    <rPh sb="5" eb="6">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/12（金）</t>
+    <rPh sb="5" eb="6">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/22（月）</t>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -740,12 +729,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1668,6 +1657,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1677,7 +1681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1864,9 +1868,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2002,9 +2003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2164,12 +2162,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2245,19 +2237,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2586,20 +2572,20 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="32"/>
-    <col min="2" max="2" width="30.625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="89" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="95" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="94" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="27.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.125" style="1" customWidth="1"/>
@@ -2609,7 +2595,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="57"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="52" t="s">
@@ -2619,25 +2605,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="147" t="s">
-        <v>36</v>
+      <c r="I1" s="145" t="s">
+        <v>33</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>2</v>
@@ -2646,177 +2632,177 @@
         <v>17</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="165" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="85" t="s">
+      <c r="A2" s="161" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="84" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="148" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="I2" s="146" t="s">
+        <v>26</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="166"/>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="85" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="149" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="I3" s="147" t="s">
+        <v>26</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="166"/>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="85" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="149" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="147" t="s">
+        <v>26</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="166"/>
-      <c r="B5" s="86" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="85" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="149" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="I5" s="147" t="s">
+        <v>26</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="167"/>
-      <c r="B6" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="69" t="s">
-        <v>64</v>
+      <c r="A6" s="163"/>
+      <c r="B6" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="68" t="s">
+        <v>61</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="36"/>
       <c r="G6" s="47"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="150"/>
+      <c r="I6" s="148"/>
       <c r="J6" s="36"/>
       <c r="K6" s="15"/>
       <c r="L6" s="38"/>
@@ -2824,371 +2810,371 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="85" t="s">
+      <c r="A7" s="164" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="84" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="151" t="s">
-        <v>97</v>
+      <c r="E7" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="149" t="s">
+        <v>93</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="68" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>41</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M7" s="59" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="169"/>
-      <c r="B8" s="86" t="s">
+      <c r="A8" s="165"/>
+      <c r="B8" s="85" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="58" t="s">
-        <v>33</v>
-      </c>
       <c r="F8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="44" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="152" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="I8" s="150" t="s">
+        <v>44</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="169"/>
-      <c r="B9" s="86" t="s">
+      <c r="A9" s="165"/>
+      <c r="B9" s="85" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="153" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>44</v>
-      </c>
       <c r="L9" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="169"/>
-      <c r="B10" s="86" t="s">
+      <c r="A10" s="165"/>
+      <c r="B10" s="85" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="145" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="154" t="s">
-        <v>99</v>
-      </c>
       <c r="J10" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K10" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="165"/>
+      <c r="B11" s="85" t="s">
         <v>56</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="169"/>
-      <c r="B11" s="86" t="s">
-        <v>59</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="146" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="144" t="s">
+        <v>52</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="154" t="s">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="I11" s="152" t="s">
+        <v>96</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="169"/>
-      <c r="B12" s="86" t="s">
+      <c r="A12" s="165"/>
+      <c r="B12" s="85" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="146" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="G12" s="144" t="s">
+        <v>74</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="154" t="s">
-        <v>102</v>
+        <v>24</v>
+      </c>
+      <c r="I12" s="152" t="s">
+        <v>98</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="169"/>
-      <c r="B13" s="86" t="s">
+      <c r="A13" s="165"/>
+      <c r="B13" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="146" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="G13" s="144" t="s">
+        <v>45</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="154" t="s">
-        <v>101</v>
+        <v>24</v>
+      </c>
+      <c r="I13" s="152" t="s">
+        <v>97</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="169"/>
-      <c r="B14" s="86" t="s">
+      <c r="A14" s="165"/>
+      <c r="B14" s="85" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="146" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="G14" s="144" t="s">
+        <v>46</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="152" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="I14" s="150" t="s">
+        <v>47</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="169"/>
-      <c r="B15" s="86" t="s">
+      <c r="A15" s="165"/>
+      <c r="B15" s="85" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="54"/>
       <c r="D15" s="40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="145" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="154" t="s">
-        <v>98</v>
-      </c>
       <c r="J15" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="169"/>
-      <c r="B16" s="86" t="s">
-        <v>45</v>
+      <c r="A16" s="165"/>
+      <c r="B16" s="85" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="146" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="G16" s="144" t="s">
+        <v>48</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="152" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="I16" s="150" t="s">
+        <v>43</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="29"/>
@@ -3196,51 +3182,51 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="169"/>
-      <c r="B17" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="131"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="129"/>
       <c r="D17" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="139"/>
+        <v>24</v>
+      </c>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="137"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="169"/>
-      <c r="B18" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>29</v>
+      <c r="A18" s="165"/>
+      <c r="B18" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="156" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="154" t="s">
+        <v>49</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="38"/>
@@ -3248,41 +3234,41 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="175" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>72</v>
+      <c r="A19" s="171" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>69</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="157"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="155"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="69"/>
       <c r="L19" s="25"/>
       <c r="M19" s="59"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="176"/>
-      <c r="B20" s="86" t="s">
-        <v>78</v>
+      <c r="A20" s="172"/>
+      <c r="B20" s="85" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="27"/>
       <c r="G20" s="45"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="158"/>
+      <c r="I20" s="156"/>
       <c r="J20" s="27"/>
       <c r="K20" s="14"/>
       <c r="L20" s="29"/>
@@ -3290,19 +3276,19 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="176"/>
-      <c r="B21" s="86" t="s">
-        <v>75</v>
+      <c r="A21" s="172"/>
+      <c r="B21" s="85" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
       <c r="G21" s="45"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="158"/>
+      <c r="I21" s="156"/>
       <c r="J21" s="27"/>
       <c r="K21" s="14"/>
       <c r="L21" s="29"/>
@@ -3310,19 +3296,19 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="176"/>
-      <c r="B22" s="86" t="s">
-        <v>73</v>
+      <c r="A22" s="172"/>
+      <c r="B22" s="85" t="s">
+        <v>70</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
       <c r="G22" s="45"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="158"/>
+      <c r="I22" s="156"/>
       <c r="J22" s="27"/>
       <c r="K22" s="14"/>
       <c r="L22" s="29"/>
@@ -3330,19 +3316,19 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="177"/>
-      <c r="B23" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="72"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="71"/>
       <c r="F23" s="36"/>
       <c r="G23" s="47"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="156"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="154"/>
       <c r="J23" s="36"/>
       <c r="K23" s="15"/>
       <c r="L23" s="38"/>
@@ -3350,41 +3336,41 @@
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="172" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>68</v>
+      <c r="A24" s="168" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="157"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="155"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="70"/>
+      <c r="K24" s="69"/>
       <c r="L24" s="25"/>
       <c r="M24" s="59"/>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="173"/>
-      <c r="B25" s="85" t="s">
-        <v>69</v>
+      <c r="A25" s="169"/>
+      <c r="B25" s="84" t="s">
+        <v>66</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="27"/>
       <c r="G25" s="45"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="158"/>
+      <c r="I25" s="156"/>
       <c r="J25" s="27"/>
       <c r="K25" s="14"/>
       <c r="L25" s="29"/>
@@ -3392,8 +3378,8 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="173"/>
-      <c r="B26" s="88" t="s">
+      <c r="A26" s="169"/>
+      <c r="B26" s="87" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="51"/>
@@ -3402,7 +3388,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="46"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="159"/>
+      <c r="I26" s="157"/>
       <c r="J26" s="35"/>
       <c r="K26" s="19"/>
       <c r="L26" s="37"/>
@@ -3410,59 +3396,59 @@
       <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="174"/>
-      <c r="B27" s="89" t="s">
+      <c r="A27" s="170"/>
+      <c r="B27" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="83"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="82"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="170" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="85" t="s">
+      <c r="A28" s="166" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="74" t="s">
-        <v>23</v>
+      <c r="C28" s="73" t="s">
+        <v>99</v>
       </c>
       <c r="D28" s="24"/>
-      <c r="E28" s="65"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="67"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="23"/>
-      <c r="I28" s="151"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="23"/>
-      <c r="K28" s="70"/>
+      <c r="K28" s="69"/>
       <c r="L28" s="25"/>
       <c r="M28" s="59"/>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="170"/>
-      <c r="B29" s="86" t="s">
+      <c r="A29" s="166"/>
+      <c r="B29" s="85" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="7"/>
       <c r="F29" s="27"/>
       <c r="G29" s="45"/>
       <c r="H29" s="27"/>
-      <c r="I29" s="153"/>
+      <c r="I29" s="151"/>
       <c r="J29" s="27"/>
       <c r="K29" s="14"/>
       <c r="L29" s="29"/>
@@ -3470,19 +3456,19 @@
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="171"/>
-      <c r="B30" s="87" t="s">
+      <c r="A30" s="167"/>
+      <c r="B30" s="86" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="8"/>
       <c r="F30" s="36"/>
       <c r="G30" s="47"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="150"/>
+      <c r="I30" s="148"/>
       <c r="J30" s="36"/>
       <c r="K30" s="15"/>
       <c r="L30" s="38"/>
@@ -3504,94 +3490,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C55EE1-B894-4143-9090-8A9B5CDE5649}">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="95" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="94" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="27" width="5.625" customWidth="1"/>
+    <col min="6" max="28" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="63"/>
-      <c r="B1" s="91" t="s">
-        <v>60</v>
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="62"/>
+      <c r="B1" s="90" t="s">
+        <v>57</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="61">
+        <v>59</v>
+      </c>
+      <c r="F1" s="187">
         <v>45106</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="187">
         <v>45107</v>
       </c>
-      <c r="H1" s="61">
+      <c r="H1" s="187">
         <v>45108</v>
       </c>
-      <c r="I1" s="61">
+      <c r="I1" s="186">
         <v>45109</v>
       </c>
-      <c r="J1" s="61">
+      <c r="J1" s="186">
         <v>45110</v>
       </c>
-      <c r="K1" s="61">
+      <c r="K1" s="186">
         <v>45111</v>
       </c>
-      <c r="L1" s="61">
+      <c r="L1" s="186">
         <v>45112</v>
       </c>
-      <c r="M1" s="61">
+      <c r="M1" s="187">
         <v>45113</v>
       </c>
-      <c r="N1" s="61">
+      <c r="N1" s="187">
         <v>45114</v>
       </c>
-      <c r="O1" s="62">
+      <c r="O1" s="186">
         <v>45115</v>
       </c>
-      <c r="P1" s="62">
+      <c r="P1" s="186">
         <v>45116</v>
       </c>
-      <c r="Q1" s="62">
+      <c r="Q1" s="186">
         <v>45117</v>
       </c>
-      <c r="R1" s="61">
+      <c r="R1" s="187">
         <v>45118</v>
       </c>
-      <c r="S1" s="61">
+      <c r="S1" s="186">
         <v>45119</v>
       </c>
-      <c r="T1" s="61">
+      <c r="T1" s="187">
         <v>45120</v>
       </c>
-      <c r="U1" s="61">
+      <c r="U1" s="187">
         <v>45121</v>
       </c>
-      <c r="V1" s="62">
+      <c r="V1" s="187">
         <v>45122</v>
       </c>
-      <c r="W1" s="62">
+      <c r="W1" s="186">
         <v>45123</v>
       </c>
-      <c r="X1" s="62">
+      <c r="X1" s="186">
         <v>45124</v>
       </c>
       <c r="Y1" s="61">
@@ -3600,18 +3586,21 @@
       <c r="Z1" s="61">
         <v>45126</v>
       </c>
-      <c r="AA1" s="161">
+      <c r="AA1" s="159">
         <v>45127</v>
       </c>
-      <c r="AB1" s="98">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="178" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="92" t="str">
+      <c r="AB1" s="159">
+        <v>45494</v>
+      </c>
+      <c r="AC1" s="97">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="174" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="91" t="str">
         <f>+項目整理!B2</f>
         <v>要件定義書</v>
       </c>
@@ -3619,45 +3608,42 @@
         <f>+項目整理!D2</f>
         <v>松田・山下</v>
       </c>
-      <c r="D2" s="102">
+      <c r="D2" s="101">
         <v>1</v>
       </c>
-      <c r="E2" s="123">
+      <c r="E2" s="121">
         <v>45106</v>
       </c>
-      <c r="F2" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106" t="s">
-        <v>84</v>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="105" t="s">
+        <v>80</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="30"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="104"/>
       <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="99"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="179"/>
-      <c r="B3" s="93" t="str">
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="98"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A3" s="175"/>
+      <c r="B3" s="92" t="str">
         <f>+項目整理!B3</f>
         <v>データーベース仕様書</v>
       </c>
@@ -3665,41 +3651,40 @@
         <f>+項目整理!D3</f>
         <v>田井</v>
       </c>
-      <c r="D3" s="103">
+      <c r="D3" s="102">
         <v>1</v>
       </c>
-      <c r="E3" s="124">
+      <c r="E3" s="122">
         <v>45107</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="128" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="31"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="106"/>
       <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="100"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="179"/>
-      <c r="B4" s="93" t="str">
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="99"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A4" s="175"/>
+      <c r="B4" s="92" t="str">
         <f>+項目整理!B4</f>
         <v>画面仕様書</v>
       </c>
@@ -3707,43 +3692,42 @@
         <f>+項目整理!D4</f>
         <v>田口</v>
       </c>
-      <c r="D4" s="103">
+      <c r="D4" s="102">
         <v>1</v>
       </c>
-      <c r="E4" s="124">
+      <c r="E4" s="122">
         <v>45107</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="128" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="128" t="s">
-        <v>83</v>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="126" t="s">
+        <v>79</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="106"/>
       <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
       <c r="Y4" s="31"/>
       <c r="Z4" s="31"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="100"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A5" s="179"/>
-      <c r="B5" s="93" t="str">
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="99"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A5" s="175"/>
+      <c r="B5" s="92" t="str">
         <f>+項目整理!B5</f>
         <v>システム全体図</v>
       </c>
@@ -3751,43 +3735,42 @@
         <f>+項目整理!D5</f>
         <v>松田</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="102">
         <v>1</v>
       </c>
-      <c r="E5" s="124">
+      <c r="E5" s="122">
         <v>45107</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="128" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="128" t="s">
-        <v>83</v>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="126" t="s">
+        <v>79</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="31"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="106"/>
       <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
       <c r="Z5" s="31"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="100"/>
-    </row>
-    <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="180"/>
-      <c r="B6" s="94" t="str">
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="99"/>
+    </row>
+    <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="176"/>
+      <c r="B6" s="93" t="str">
         <f>+項目整理!B6</f>
         <v>スケジュール表作成</v>
       </c>
@@ -3795,47 +3778,44 @@
         <f>+項目整理!D6</f>
         <v>山下</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="103">
         <v>1</v>
       </c>
-      <c r="E6" s="125">
+      <c r="E6" s="123">
         <v>45110</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="101"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A7" s="181" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="92" t="str">
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="100"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A7" s="177" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="91" t="str">
         <f>+項目整理!B7</f>
         <v>店舗TOP</v>
       </c>
@@ -3843,65 +3823,44 @@
         <f>+項目整理!D7</f>
         <v>田口・田井</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="101">
         <v>1</v>
       </c>
-      <c r="E7" s="123">
+      <c r="E7" s="121">
         <v>45107</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="U7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z7" s="189" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA7" s="189" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB7" s="99"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A8" s="182"/>
-      <c r="B8" s="93" t="str">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="98"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A8" s="178"/>
+      <c r="B8" s="92" t="str">
         <f>+項目整理!B8</f>
         <v>ログイン失敗</v>
       </c>
@@ -3909,65 +3868,44 @@
         <f>+項目整理!D8</f>
         <v>田口・田井</v>
       </c>
-      <c r="D8" s="103">
+      <c r="D8" s="102">
         <v>1</v>
       </c>
-      <c r="E8" s="124">
+      <c r="E8" s="122">
         <v>45107</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z8" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA8" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="100"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A9" s="182"/>
-      <c r="B9" s="93" t="str">
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="99"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A9" s="178"/>
+      <c r="B9" s="92" t="str">
         <f>+項目整理!B9</f>
         <v>顧客情報登録</v>
       </c>
@@ -3975,65 +3913,44 @@
         <f>+項目整理!D9</f>
         <v>田口・田井</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="101">
         <v>1</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="122">
         <v>45107</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z9" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA9" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB9" s="100"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A10" s="182"/>
-      <c r="B10" s="93" t="str">
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="99"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A10" s="178"/>
+      <c r="B10" s="92" t="str">
         <f>+項目整理!B10</f>
         <v>商品一覧</v>
       </c>
@@ -4041,65 +3958,44 @@
         <f>+項目整理!D10</f>
         <v>田口・田井</v>
       </c>
-      <c r="D10" s="102">
+      <c r="D10" s="101">
         <v>1</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="122">
         <v>45107</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z10" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA10" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB10" s="100"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A11" s="182"/>
-      <c r="B11" s="93" t="str">
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="99"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A11" s="178"/>
+      <c r="B11" s="92" t="str">
         <f>+項目整理!B11</f>
         <v>商品詳細（1ファイルで対応）</v>
       </c>
@@ -4107,65 +4003,44 @@
         <f>+項目整理!D11</f>
         <v>田口・松田</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="101">
         <v>1</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E11" s="122">
         <v>45107</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z11" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA11" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB11" s="100"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A12" s="182"/>
-      <c r="B12" s="93" t="str">
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="99"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A12" s="178"/>
+      <c r="B12" s="92" t="str">
         <f>+項目整理!B12</f>
         <v>カート</v>
       </c>
@@ -4173,57 +4048,42 @@
         <f>+項目整理!D12</f>
         <v>田口・田井</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="101">
         <v>1</v>
       </c>
-      <c r="E12" s="124">
+      <c r="E12" s="122">
         <v>45113</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U12" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z12" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA12" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB12" s="100"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A13" s="182"/>
-      <c r="B13" s="93" t="str">
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="99"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A13" s="178"/>
+      <c r="B13" s="92" t="str">
         <f>+項目整理!B13</f>
         <v>マイページ</v>
       </c>
@@ -4231,57 +4091,42 @@
         <f>+項目整理!D13</f>
         <v>田口・田井</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="101">
         <v>1</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="122">
         <v>45113</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T13" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U13" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z13" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA13" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB13" s="100"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A14" s="182"/>
-      <c r="B14" s="93" t="str">
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="99"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A14" s="178"/>
+      <c r="B14" s="92" t="str">
         <f>+項目整理!B14</f>
         <v>キャンセル受付</v>
       </c>
@@ -4289,57 +4134,42 @@
         <f>+項目整理!D14</f>
         <v>田口・田井</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="101">
         <v>1</v>
       </c>
-      <c r="E14" s="124">
+      <c r="E14" s="122">
         <v>45113</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S14" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U14" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z14" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA14" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB14" s="100"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A15" s="182"/>
-      <c r="B15" s="93" t="str">
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="99"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A15" s="178"/>
+      <c r="B15" s="92" t="str">
         <f>+項目整理!B15</f>
         <v>購入受付</v>
       </c>
@@ -4347,57 +4177,42 @@
         <f>+項目整理!D15</f>
         <v>田口・田井</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="101">
         <v>1</v>
       </c>
-      <c r="E15" s="124">
+      <c r="E15" s="122">
         <v>45113</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S15" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U15" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z15" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA15" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB15" s="100"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A16" s="182"/>
-      <c r="B16" s="93" t="str">
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="99"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A16" s="178"/>
+      <c r="B16" s="92" t="str">
         <f>+項目整理!B16</f>
         <v>ログアウト</v>
       </c>
@@ -4405,57 +4220,42 @@
         <f>+項目整理!D16</f>
         <v>田井</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D16" s="101">
         <v>1</v>
       </c>
-      <c r="E16" s="124">
+      <c r="E16" s="122">
         <v>45113</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S16" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T16" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U16" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z16" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA16" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB16" s="100"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A17" s="182"/>
-      <c r="B17" s="93" t="str">
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="99"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A17" s="178"/>
+      <c r="B17" s="92" t="str">
         <f>+項目整理!B17</f>
         <v>データベース作成</v>
       </c>
@@ -4463,65 +4263,44 @@
         <f>+項目整理!D17</f>
         <v>田井</v>
       </c>
-      <c r="D17" s="102">
+      <c r="D17" s="101">
         <v>1</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="138">
         <v>45107</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="142"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="S17" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="T17" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="U17" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="V17" s="142"/>
-      <c r="W17" s="142"/>
-      <c r="X17" s="142"/>
-      <c r="Y17" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z17" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA17" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB17" s="143"/>
-    </row>
-    <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="182"/>
-      <c r="B18" s="94" t="str">
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="140"/>
+      <c r="S17" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="140"/>
+      <c r="U17" s="140"/>
+      <c r="V17" s="140"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="140"/>
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="141"/>
+    </row>
+    <row r="18" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="178"/>
+      <c r="B18" s="93" t="str">
         <f>+項目整理!B18</f>
         <v>フィルタ作成（Java）</v>
       </c>
@@ -4529,45 +4308,44 @@
         <f>+項目整理!D18</f>
         <v>田井</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="103">
         <v>1</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="123">
         <v>45107</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="101"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A19" s="183" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="92" t="str">
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="100"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A19" s="179" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="91" t="str">
         <f>+項目整理!B19</f>
         <v>取扱アイテム数の決定</v>
       </c>
@@ -4575,55 +4353,42 @@
         <f>+項目整理!D19</f>
         <v>全員</v>
       </c>
-      <c r="D19" s="102">
+      <c r="D19" s="101">
         <v>1</v>
       </c>
-      <c r="E19" s="123">
+      <c r="E19" s="121">
         <v>45113</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
-      <c r="M19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="N19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="S19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="T19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="U19" s="30"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA19" s="191" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB19" s="99"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A20" s="184"/>
-      <c r="B20" s="93" t="str">
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="108"/>
+      <c r="AC19" s="98"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A20" s="180"/>
+      <c r="B20" s="92" t="str">
         <f>+項目整理!B20</f>
         <v>取扱商品の選定（+商品カテゴリ決定）</v>
       </c>
@@ -4631,55 +4396,42 @@
         <f>+項目整理!D20</f>
         <v>全員</v>
       </c>
-      <c r="D20" s="103">
+      <c r="D20" s="102">
         <v>1</v>
       </c>
-      <c r="E20" s="124">
+      <c r="E20" s="122">
         <v>45113</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S20" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T20" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U20" s="31"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z20" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA20" s="192" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB20" s="100"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A21" s="184"/>
-      <c r="B21" s="93" t="str">
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="99"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A21" s="180"/>
+      <c r="B21" s="92" t="str">
         <f>+項目整理!B21</f>
         <v>取扱商品の画像選定</v>
       </c>
@@ -4687,55 +4439,42 @@
         <f>+項目整理!D21</f>
         <v>全員</v>
       </c>
-      <c r="D21" s="103">
+      <c r="D21" s="102">
         <v>1</v>
       </c>
-      <c r="E21" s="124">
+      <c r="E21" s="122">
         <v>45113</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
-      <c r="M21" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T21" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U21" s="31"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z21" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA21" s="192" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB21" s="100"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22" s="184"/>
-      <c r="B22" s="93" t="str">
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="99"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A22" s="180"/>
+      <c r="B22" s="92" t="str">
         <f>+項目整理!B22</f>
         <v>販売価格の決定</v>
       </c>
@@ -4743,55 +4482,42 @@
         <f>+項目整理!D22</f>
         <v>全員</v>
       </c>
-      <c r="D22" s="103">
+      <c r="D22" s="102">
         <v>1</v>
       </c>
-      <c r="E22" s="124">
+      <c r="E22" s="122">
         <v>45113</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
-      <c r="M22" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="S22" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="T22" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="U22" s="31"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z22" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA22" s="192" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB22" s="100"/>
-    </row>
-    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="185"/>
-      <c r="B23" s="94" t="str">
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="99"/>
+    </row>
+    <row r="23" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="181"/>
+      <c r="B23" s="93" t="str">
         <f>+項目整理!B23</f>
         <v>商品説明文の準備</v>
       </c>
@@ -4799,102 +4525,84 @@
         <f>+項目整理!D23</f>
         <v>全員</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="103">
         <v>1</v>
       </c>
-      <c r="E23" s="125">
+      <c r="E23" s="123">
         <v>45113</v>
       </c>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="S23" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="T23" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="U23" s="97"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z23" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA23" s="193" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB23" s="101"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A24" s="186" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="92" t="str">
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="100"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A24" s="182" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="91" t="str">
         <f>+項目整理!B24</f>
         <v>テスト仕様書（最終段階でOK）</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="102">
+        <v>24</v>
+      </c>
+      <c r="D24" s="101">
         <v>1</v>
       </c>
-      <c r="E24" s="123">
+      <c r="E24" s="121">
         <v>45125</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="30"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="108"/>
       <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z24" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA24" s="189" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB24" s="99"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A25" s="187"/>
-      <c r="B25" s="93" t="str">
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="98"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A25" s="183"/>
+      <c r="B25" s="92" t="str">
         <f>+項目整理!B25</f>
         <v>操作説明書（⇒要件定義書）</v>
       </c>
@@ -4902,226 +4610,222 @@
         <f>+項目整理!D25</f>
         <v>山下</v>
       </c>
-      <c r="D25" s="103">
+      <c r="D25" s="102">
         <v>1</v>
       </c>
-      <c r="E25" s="124">
+      <c r="E25" s="122">
         <v>45125</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="31"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="106"/>
       <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z25" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA25" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB25" s="100"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A26" s="187"/>
-      <c r="B26" s="111" t="str">
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="99"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A26" s="183"/>
+      <c r="B26" s="109" t="str">
         <f>+項目整理!B26</f>
         <v>シーケンス図</v>
       </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="115"/>
-      <c r="Y26" s="114"/>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="116"/>
-    </row>
-    <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="188"/>
-      <c r="B27" s="117" t="str">
+      <c r="C26" s="110"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="114"/>
+    </row>
+    <row r="27" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="184"/>
+      <c r="B27" s="115" t="str">
         <f>+項目整理!B27</f>
         <v>クラス図</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="122"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A28" s="170" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="85" t="str">
+      <c r="C27" s="116"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="119"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="119"/>
+      <c r="AB27" s="119"/>
+      <c r="AC27" s="120"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A28" s="166" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="84" t="str">
         <f>+項目整理!B28</f>
         <v>第１回　プレゼンテーション</v>
       </c>
-      <c r="C28" s="74" t="str">
+      <c r="C28" s="73" t="str">
         <f>+項目整理!C28</f>
-        <v>7/03（月）</v>
-      </c>
-      <c r="D28" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="123"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="96" t="s">
-        <v>79</v>
+        <v>7/03（水）</v>
+      </c>
+      <c r="D28" s="101"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="95" t="s">
+        <v>76</v>
       </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="25"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="108"/>
       <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="99"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A29" s="170"/>
-      <c r="B29" s="85" t="str">
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="108"/>
+      <c r="AB28" s="108"/>
+      <c r="AC28" s="98"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A29" s="166"/>
+      <c r="B29" s="84" t="str">
         <f>+項目整理!B29</f>
         <v>第２回　プレゼンテーション</v>
       </c>
-      <c r="C29" s="74" t="str">
+      <c r="C29" s="73" t="str">
         <f>+項目整理!C29</f>
-        <v>7/11（火）</v>
-      </c>
-      <c r="D29" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="124"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
+        <v>7/12（金）</v>
+      </c>
+      <c r="D29" s="102"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
       <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="100"/>
-    </row>
-    <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="171"/>
-      <c r="B30" s="87" t="str">
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="99"/>
+    </row>
+    <row r="30" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="167"/>
+      <c r="B30" s="86" t="str">
         <f>+項目整理!B30</f>
         <v>第３回　プレゼンテーション</v>
       </c>
       <c r="C30" s="56" t="str">
         <f>+項目整理!C30</f>
-        <v>7/20（火）</v>
-      </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="38"/>
+        <v>7/22（月）</v>
+      </c>
+      <c r="D30" s="103"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="107"/>
       <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="109"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="164" t="s">
-        <v>79</v>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="107"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="160" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
